--- a/data/trans_bre/iP22_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP22_R-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,8</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,77%</t>
+          <t>-20,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-47,27%</t>
+          <t>-5,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-23,37%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>-7,23%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 2,28</t>
+          <t>-10,44; 2,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,08; -5,69</t>
+          <t>-8,93; 5,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 1,36</t>
+          <t>-0,88; 9,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 5,61</t>
+          <t>-7,74; 5,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,19; 16,25</t>
+          <t>-39,89; 10,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,46; -27,35</t>
+          <t>-27,68; 21,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,61; 10,21</t>
+          <t>-5,57; 88,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 52,21</t>
+          <t>-36,76; 40,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-10,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,1%</t>
+          <t>-15,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>-47,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>-23,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 2,01</t>
+          <t>-7,55; 2,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 5,33</t>
+          <t>-16,08; -5,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 9,58</t>
+          <t>-8,81; 1,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 5,24</t>
+          <t>-4,1; 5,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 10,08</t>
+          <t>-40,19; 16,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 21,31</t>
+          <t>-61,46; -27,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 88,43</t>
+          <t>-45,61; 10,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 40,5</t>
+          <t>-26,09; 52,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP22_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP22_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>23,77%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 6,11</t>
+          <t>-5,56; 14,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 8,14</t>
+          <t>-2,18; 15,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 10,26</t>
+          <t>-5,32; 10,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 6,65</t>
+          <t>-6,58; 16,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 25,05</t>
+          <t>-18,22; 61,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 28,49</t>
+          <t>-6,4; 67,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 57,11</t>
+          <t>-23,07; 68,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 43,12</t>
+          <t>-24,53; 116,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,1%</t>
+          <t>-25,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>-10,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>-18,04%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 2,01</t>
+          <t>-13,39; -1,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 5,33</t>
+          <t>-11,65; 2,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 9,58</t>
+          <t>-0,45; 11,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 5,24</t>
+          <t>-9,83; 3,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 10,08</t>
+          <t>-43,47; -4,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 21,31</t>
+          <t>-29,34; 8,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 88,43</t>
+          <t>-2,34; 87,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 40,5</t>
+          <t>-47,56; 26,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,8</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,77%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-47,27%</t>
+          <t>-17,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-23,37%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>-9,22%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 2,28</t>
+          <t>-4,87; 8,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,08; -5,69</t>
+          <t>-10,12; 3,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 1,36</t>
+          <t>-6,31; 6,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 5,61</t>
+          <t>-8,19; 4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,19; 16,25</t>
+          <t>-27,03; 72,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,46; -27,35</t>
+          <t>-49,1; 29,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,61; 10,21</t>
+          <t>-33,49; 47,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 52,21</t>
+          <t>-42,51; 41,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-12,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>-18,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,34%</t>
+          <t>-53,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>-28,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>14,15%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,12</t>
+          <t>-8,29; 2,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,57</t>
+          <t>-19,19; -6,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,98</t>
+          <t>-10,36; 1,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,12</t>
+          <t>-3,91; 6,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,91; 5,77</t>
+          <t>-44,54; 20,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,0; -2,41</t>
+          <t>-69,77; -31,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 25,72</t>
+          <t>-54,07; 16,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 23,65</t>
+          <t>-25,45; 69,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-2,4</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,95</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-11,02%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-14,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 1,14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,6; -0,03</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 4,08</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 3,49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-24,72; 5,78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-25,22; 0,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,09; 27,52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-20,88; 26,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/iP22_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP22_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 14,59</t>
+          <t>-5,43; 13,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 15,72</t>
+          <t>-1,77; 15,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 10,78</t>
+          <t>-5,9; 10,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 16,96</t>
+          <t>-7,43; 16,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 61,81</t>
+          <t>-16,86; 55,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 67,18</t>
+          <t>-5,8; 66,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 68,96</t>
+          <t>-25,8; 66,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 116,35</t>
+          <t>-26,06; 114,38</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -1,25</t>
+          <t>-13,69; -1,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 2,58</t>
+          <t>-10,57; 3,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 11,53</t>
+          <t>-0,76; 10,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 3,3</t>
+          <t>-9,51; 3,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,47; -4,84</t>
+          <t>-43,78; -4,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 8,66</t>
+          <t>-27,42; 11,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 87,38</t>
+          <t>-3,82; 76,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 26,73</t>
+          <t>-49,08; 29,27</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 8,35</t>
+          <t>-5,35; 8,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 3,91</t>
+          <t>-10,36; 3,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 6,14</t>
+          <t>-6,16; 7,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 4,84</t>
+          <t>-7,89; 5,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,03; 72,52</t>
+          <t>-29,57; 74,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,1; 29,98</t>
+          <t>-48,64; 25,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 47,08</t>
+          <t>-31,15; 54,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,51; 41,15</t>
+          <t>-41,97; 40,92</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 2,74</t>
+          <t>-8,69; 2,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -6,52</t>
+          <t>-18,81; -6,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 1,72</t>
+          <t>-11,28; 0,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 6,91</t>
+          <t>-3,46; 7,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,54; 20,13</t>
+          <t>-44,79; 22,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,77; -31,91</t>
+          <t>-70,02; -31,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 16,3</t>
+          <t>-56,85; 8,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 69,71</t>
+          <t>-22,78; 77,75</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,14</t>
+          <t>-6,12; 0,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -0,03</t>
+          <t>-7,62; 0,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,08</t>
+          <t>-2,09; 4,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,49</t>
+          <t>-3,36; 3,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 5,78</t>
+          <t>-25,85; 4,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 0,32</t>
+          <t>-26,02; 0,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 27,52</t>
+          <t>-11,43; 26,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 26,72</t>
+          <t>-20,85; 26,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP22_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP22_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>21,71%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 13,1</t>
+          <t>-5,88; 13,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 15,27</t>
+          <t>-2,21; 15,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 10,13</t>
+          <t>-5,99; 10,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 16,74</t>
+          <t>-8,0; 16,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 55,75</t>
+          <t>-18,43; 63,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 66,75</t>
+          <t>-6,63; 68,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 66,19</t>
+          <t>-24,73; 71,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 114,38</t>
+          <t>-29,19; 109,55</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,04%</t>
+          <t>-16,72%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,69; -1,25</t>
+          <t>-12,85; -1,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 3,56</t>
+          <t>-10,81; 2,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 10,94</t>
+          <t>-0,46; 11,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 3,82</t>
+          <t>-9,62; 4,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,78; -4,33</t>
+          <t>-42,47; -4,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 11,14</t>
+          <t>-28,06; 8,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 76,54</t>
+          <t>-3,68; 80,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,08; 29,27</t>
+          <t>-47,4; 38,58</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>-8,28%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 8,29</t>
+          <t>-4,88; 9,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 3,41</t>
+          <t>-9,15; 4,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 7,18</t>
+          <t>-6,74; 5,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 5,09</t>
+          <t>-8,03; 5,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,57; 74,36</t>
+          <t>-26,93; 90,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,64; 25,66</t>
+          <t>-45,58; 28,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 54,39</t>
+          <t>-35,28; 44,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 40,92</t>
+          <t>-41,01; 43,91</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>16,49%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 2,82</t>
+          <t>-8,27; 2,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,81; -6,73</t>
+          <t>-19,82; -6,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 0,97</t>
+          <t>-10,87; 1,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 7,73</t>
+          <t>-4,05; 10,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,79; 22,29</t>
+          <t>-44,25; 22,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,02; -31,78</t>
+          <t>-71,48; -32,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 8,9</t>
+          <t>-54,85; 10,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 77,75</t>
+          <t>-28,36; 104,5</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 0,94</t>
+          <t>-5,68; 1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 0,07</t>
+          <t>-7,63; -0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 4,06</t>
+          <t>-2,54; 3,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,47</t>
+          <t>-3,72; 3,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 4,69</t>
+          <t>-23,91; 5,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 0,35</t>
+          <t>-26,0; -2,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 26,42</t>
+          <t>-13,56; 25,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 26,39</t>
+          <t>-21,61; 28,36</t>
         </is>
       </c>
     </row>
